--- a/script_DNRPA/files/registroInscripcionMotoNacion.xlsx
+++ b/script_DNRPA/files/registroInscripcionMotoNacion.xlsx
@@ -1018,79 +1018,79 @@
         <v>45108</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>12577</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1795</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>3552</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1313</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2038</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1086</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1143</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>658</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>498</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>923</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1208</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>367</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1694</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>3675</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1205</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1896</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>38303</v>
       </c>
     </row>
     <row r="9">

--- a/script_DNRPA/files/registroInscripcionMotoNacion.xlsx
+++ b/script_DNRPA/files/registroInscripcionMotoNacion.xlsx
@@ -1081,7 +1081,7 @@
         <v>3675</v>
       </c>
       <c r="W8" t="n">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="X8" t="n">
         <v>1896</v>
@@ -1090,7 +1090,7 @@
         <v>47</v>
       </c>
       <c r="Z8" t="n">
-        <v>38303</v>
+        <v>38304</v>
       </c>
     </row>
     <row r="9">
